--- a/MedicalLink/Templates/So_XetNghiem_NuocTieuVaDichKhac.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_NuocTieuVaDichKhac.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$V$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$V$14</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +32,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].THOIGIANBAOCAO</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
   </si>
   <si>
     <t>&amp;=[DATA1].STT</t>
-  </si>
-  <si>
-    <t>SỞ Y TẾ HẢI PHÒNG</t>
   </si>
   <si>
     <t>Họ tên người bệnh</t>
@@ -190,6 +184,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].KETQUA_BLO</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -378,49 +378,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -708,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,315 +733,312 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+    </row>
+    <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+    </row>
+    <row r="6" spans="1:22" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="20"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="7" spans="1:22" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+    </row>
+    <row r="8" spans="1:22" s="8" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="30" t="s">
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="20">
+        <v>9</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
+      <c r="K8" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
     </row>
-    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
+    <row r="9" spans="1:22" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="33" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U12" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-    </row>
-    <row r="7" spans="1:22" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="V7" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-    </row>
-    <row r="9" spans="1:22" s="8" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>6</v>
-      </c>
-      <c r="G9" s="7">
-        <v>7</v>
-      </c>
-      <c r="H9" s="7">
-        <v>8</v>
-      </c>
-      <c r="I9" s="21">
-        <v>9</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="T10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U13" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" s="27"/>
+      <c r="V12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="J7:S7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="J6:T6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G2:R2"/>
     <mergeCell ref="G3:R3"/>
-    <mergeCell ref="G4:R4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="J7:T7"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="J8:S8"/>
+    <mergeCell ref="G1:R1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/So_XetNghiem_NuocTieuVaDichKhac.xlsx
+++ b/MedicalLink/Templates/So_XetNghiem_NuocTieuVaDichKhac.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$V$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$V$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>STT</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGUOIGUI</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA].DEPARTMENTGROUPNAME</t>
   </si>
   <si>
     <t>SỔ NƯỚC TIỂU VÀ DỊCH KHÁC</t>
@@ -190,6 +187,66 @@
   </si>
   <si>
     <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>609</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>KETQUA_UBG</t>
+  </si>
+  <si>
+    <t>KETQUA_BIL</t>
+  </si>
+  <si>
+    <t>KETQUA_KET</t>
+  </si>
+  <si>
+    <t>KETQUA_PRO</t>
+  </si>
+  <si>
+    <t>KETQUA_NIT</t>
+  </si>
+  <si>
+    <t>KETQUA_LEU</t>
+  </si>
+  <si>
+    <t>KETQUA_GLU</t>
+  </si>
+  <si>
+    <t>KETQUA_SG</t>
+  </si>
+  <si>
+    <t>KETQUA_PH</t>
+  </si>
+  <si>
+    <t>KETQUA_BLO</t>
   </si>
 </sst>
 </file>
@@ -257,7 +314,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -394,31 +457,46 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="93" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,154 +812,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="3" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="G1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
       <c r="S1" s="15"/>
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
       <c r="V1" s="11"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="A2" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="G2" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="16"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="6" spans="1:22" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30" t="s">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="30" t="s">
+      <c r="V6" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
       <c r="T7" s="18"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
     </row>
     <row r="8" spans="1:22" s="8" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -912,116 +988,238 @@
         <v>9</v>
       </c>
       <c r="J8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="L8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="M8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="N8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="O8" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="P8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="Q8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="22" t="s">
+      <c r="R8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="S8" s="22" t="s">
         <v>38</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>39</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:22" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="9" spans="1:22" s="8" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>1</v>
+      </c>
+      <c r="B9" s="26">
+        <v>2</v>
+      </c>
+      <c r="C9" s="26">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="26">
+        <v>4</v>
+      </c>
+      <c r="E9" s="26">
+        <v>5</v>
+      </c>
+      <c r="F9" s="26">
+        <v>6</v>
+      </c>
+      <c r="G9" s="26">
+        <v>7</v>
+      </c>
+      <c r="H9" s="26">
+        <v>8</v>
+      </c>
+      <c r="I9" s="27">
+        <v>9</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="28">
+        <v>10</v>
+      </c>
+      <c r="U9" s="26">
+        <v>11</v>
+      </c>
+      <c r="V9" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="8" customFormat="1" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="T10" s="30"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="L11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="M11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="N11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="O11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="P11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="Q11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="R11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="S11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="S9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" s="21" t="s">
+      <c r="T11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="13" t="s">
+      <c r="U11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V11" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U12" s="32" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U14" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="32"/>
+      <c r="V14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="G2:R2"/>
+    <mergeCell ref="G3:R3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="U14:V14"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="J7:S7"/>
     <mergeCell ref="G6:G7"/>
@@ -1029,19 +1227,9 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="J6:T6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G2:R2"/>
-    <mergeCell ref="G3:R3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G1:R1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
